--- a/DataRev.xlsx
+++ b/DataRev.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3037C46D-EF59-45CA-80F5-A14918E48B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E11587-C205-486C-A571-FAD6AB8FFE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{7452AB45-6E49-4BF1-9CE3-59839C44B0A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{7452AB45-6E49-4BF1-9CE3-59839C44B0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="55">
   <si>
     <t>Kabupaten</t>
   </si>
@@ -162,16 +164,56 @@
   </si>
   <si>
     <t>IPNICU</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RS dengan Fasilitas NICU</t>
+  </si>
+  <si>
+    <t>Indeks Persebaran</t>
+  </si>
+  <si>
+    <t>Z-Score</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Pola</t>
+  </si>
+  <si>
+    <t>Kabupaten/Kota</t>
+  </si>
+  <si>
+    <t>-inf</t>
+  </si>
+  <si>
+    <t>Clustered</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Uniform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +234,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -232,28 +282,89 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB5957B-6277-4F62-9BCE-72CD7B697B63}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +699,7 @@
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -621,1292 +733,3582 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>0.83090000000000008</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.5766798544571381</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
+        <v>0.77320239126772128</v>
+      </c>
+      <c r="D2" s="4">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>3.770991</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>1.76796</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>2.1329617185909182</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>0.95730000000000004</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>1.1017999999999999</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>3.0790000000000002</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="16">
         <v>15.77</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>2.1095968709999999</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>1033</v>
       </c>
-      <c r="N2">
-        <v>0.1233522563684237</v>
-      </c>
-      <c r="O2">
+      <c r="N2" s="15">
+        <v>1.1533386161280339</v>
+      </c>
+      <c r="O2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.81220000000000003</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.27324209096797419</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
+        <v>0.62466894446935572</v>
+      </c>
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1.87984</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1.3057699999999999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.4396409781201895</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.92269999999999996</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.93920000000000003</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.6</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="16">
         <v>16.47</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>1.7866315489999998</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>620</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.83140000000000003</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.85343076798153084</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
+        <v>0.78296058934137747</v>
+      </c>
+      <c r="D4" s="2">
         <v>53</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>3.2718379999999998</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1.2248800000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>2.6711498269218206</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.96950000000000003</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>1.2122999999999999</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>1.5960000000000001</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="16">
         <v>14.12</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>6.2373478740000001</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>1329</v>
       </c>
-      <c r="N4">
-        <v>0.26158636335248919</v>
-      </c>
-      <c r="O4">
+      <c r="N4" s="15">
+        <v>0.59903910423720141</v>
+      </c>
+      <c r="O4" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.79459999999999997</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.97773607117305961</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3">
+        <v>0.56447311708345671</v>
+      </c>
+      <c r="D5" s="2">
         <v>30</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>5.6438379999999997</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>2.71062</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>2.0821206956342095</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.91900000000000004</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>1.1153</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>7.23</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="16">
         <v>17.059999999999999</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>2.531059199</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>533</v>
       </c>
-      <c r="N5">
-        <v>0.52251861742009653</v>
-      </c>
-      <c r="O5">
+      <c r="N5" s="15">
+        <v>1.051460537620643</v>
+      </c>
+      <c r="O5" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.80459999999999998</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.1707776181692596</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
+        <v>0.50826864560128104</v>
+      </c>
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1.2575829999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1.4147100000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.88893342098380579</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.94389999999999996</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0.64300000000000002</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="16">
         <v>15.62</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>1.8283002940000002</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>759</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.77819999999999989</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.45642742762924421</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3">
+        <v>0.97574057266611924</v>
+      </c>
+      <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2.5787900000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>3.84016</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.67153191533686096</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.85650000000000004</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.86260000000000003</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>4.1829999999999998</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="16">
         <v>17.18</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>1.403906925</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>1221</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.80720000000000003</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.49106971602312821</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3">
+        <v>1.1294543456937181</v>
+      </c>
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>2.3395549999999998</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.98451999999999995</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>2.3763407548856295</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.98519999999999996</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>1.1128</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>0.35199999999999998</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="16">
         <v>16.829999999999998</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>1.5072409880000002</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>799</v>
       </c>
-      <c r="N8">
-        <v>0.39692368220076368</v>
-      </c>
-      <c r="O8">
+      <c r="N8" s="15">
+        <v>1.455382857341577</v>
+      </c>
+      <c r="O8" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.79769999999999996</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.42346034645105768</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3">
+        <v>0.88595207129586617</v>
+      </c>
+      <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2.6491980000000002</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>3.0740700000000003</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.86178844333408156</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.81129999999999991</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.86850000000000005</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>2.1139999999999999</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="16">
         <v>16.79</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>1.463915788</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>1087</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.80230000000000001</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.68136488006542528</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
+        <v>1.0225413516510919</v>
+      </c>
+      <c r="D10" s="2">
         <v>12</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1.8920429999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2.0401099999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.9274220507717722</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.97770000000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>1.0580000000000001</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>0.53800000000000003</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="16">
         <v>17.22</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>3.4069512340000006</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>1449</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.8095</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.71688880558098367</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3">
+        <v>0.3432227382157168</v>
+      </c>
+      <c r="D11" s="2">
         <v>26</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>2.5418409999999998</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1.6522000000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1.5384584190775934</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.98109999999999997</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>1.2392000000000001</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>1.0660000000000001</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="16">
         <v>15.78</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>6.658946544</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>1336</v>
       </c>
-      <c r="N11">
-        <v>3.117472926099497E-2</v>
-      </c>
-      <c r="O11">
+      <c r="N11" s="15">
+        <v>0.27947955734968988</v>
+      </c>
+      <c r="O11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.84230000000000005</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.30829458363328399</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3">
+        <v>0.93017308758659967</v>
+      </c>
+      <c r="D12" s="2">
         <v>39</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>2.469589</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.16766999999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>14.728866225323552</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0.97670000000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>1.8236000000000001</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>2.6709999999999998</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="16">
         <v>12.96</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>7.694702329000001</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>717</v>
       </c>
-      <c r="N12">
-        <v>0.2084693267133545</v>
-      </c>
-      <c r="O12">
+      <c r="N12" s="15">
+        <v>1.1008204917337949</v>
+      </c>
+      <c r="O12" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.79220000000000002</v>
       </c>
-      <c r="C13" s="4">
-        <v>9.3145890644770482E-2</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3">
+        <v>1.1394980654172471</v>
+      </c>
+      <c r="D13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.20949300000000001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.11348999999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1.8459159397303728</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.94340000000000002</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>1.1355999999999999</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>0.20300000000000001</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="16">
         <v>16.73</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>1.775754445</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>815</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.85349999999999993</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.53662121420960673</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3">
+        <v>0.94608515773015212</v>
+      </c>
+      <c r="D14" s="2">
         <v>46</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>2.6151819999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.20661000000000002</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>12.657577077585788</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.98769999999999991</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>1.6478999999999999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.255</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="16">
         <v>12.53</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>2.1991181969999998</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>285</v>
       </c>
-      <c r="N14">
-        <v>0.16795339146624699</v>
-      </c>
-      <c r="O14">
+      <c r="N14" s="15">
+        <v>1.1600179896216589</v>
+      </c>
+      <c r="O14" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.83279999999999998</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.19201406720277939</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="3">
+        <v>0.77917387102979829</v>
+      </c>
+      <c r="D15" s="2">
         <v>22</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1.074522</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.11849999999999999</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>9.0676962025316463</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.99609999999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>1.2656000000000001</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>3.161</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="16">
         <v>13.3</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>2.846991241</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>589</v>
       </c>
-      <c r="N15">
-        <v>4.6538109125967238E-2</v>
-      </c>
-      <c r="O15">
+      <c r="N15" s="15">
+        <v>0.95163950649565665</v>
+      </c>
+      <c r="O15" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.83849999999999991</v>
       </c>
-      <c r="C16" s="4">
-        <v>6.4616250853791107E-2</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="3">
+        <v>0.90161528655643985</v>
+      </c>
+      <c r="D16" s="2">
         <v>8</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.57871799999999995</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>3.9270000000000006E-2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>14.736898395721925</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.97360000000000002</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>1.2883</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>0.70099999999999996</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="16">
         <v>14.06</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>3.601033819</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>1103</v>
       </c>
-      <c r="N16">
-        <v>1.415407630919001E-2</v>
-      </c>
-      <c r="O16">
+      <c r="N16" s="15">
+        <v>0.86460204244360339</v>
+      </c>
+      <c r="O16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.81140000000000001</v>
       </c>
-      <c r="C17" s="4">
-        <v>8.5915185151298701E-2</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3">
+        <v>1.143709371174606</v>
+      </c>
+      <c r="D17" s="2">
         <v>11</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>0.345578</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>3.7359999999999997E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>9.2499464668094227</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.99569999999999992</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>1.2505999999999999</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>0.54800000000000004</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="16">
         <v>14.63</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>5.1641318630000006</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>1154</v>
       </c>
-      <c r="N17">
-        <v>7.6613538628818841E-3</v>
-      </c>
-      <c r="O17">
+      <c r="N17" s="15">
+        <v>0.47615076720972638</v>
+      </c>
+      <c r="O17" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0.84489999999999998</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.35566281882322498</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="3">
+        <v>1.076720551142029</v>
+      </c>
+      <c r="D18" s="2">
         <v>26</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>2.1609050000000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0.20029</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>10.78888112237256</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.99560000000000004</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>1.6278999999999999</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>3.9540000000000002</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="16">
         <v>13</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>1.9375401899999998</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>773</v>
       </c>
-      <c r="N18">
-        <v>0.1405557510454413</v>
-      </c>
-      <c r="O18">
+      <c r="N18" s="15">
+        <v>1.4035340190552019</v>
+      </c>
+      <c r="O18" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.81310000000000004</v>
       </c>
-      <c r="C19" s="4">
-        <v>5.7228174611958227E-2</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="3">
+        <v>1.043478843687806</v>
+      </c>
+      <c r="D19" s="2">
         <v>6</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.36201800000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>4.8250000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>7.5029637305699479</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.98739999999999994</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>1.1798999999999999</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>2.0920000000000001</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="16">
         <v>15.6</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>2.5803658110000001</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>1215</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0.80969999999999998</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.1072009828321798</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3">
+        <v>0.52994822336460379</v>
+      </c>
+      <c r="D20" s="2">
         <v>14</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.74295800000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.17161000000000001</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>4.3293397820639816</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.95840000000000003</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>1.1063000000000001</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>1.002</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="16">
         <v>15.08</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>2.3238470760000003</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>1328</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.83120000000000005</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.26646075213771298</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="3">
+        <v>0.45669802877554699</v>
+      </c>
+      <c r="D21" s="2">
         <v>12</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1.2115530000000001</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1.11056</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>1.0909388056476013</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.96569999999999989</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>1.0011000000000001</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>0.73899999999999999</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="16">
         <v>15.51</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>1.552697577</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>130</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.78090000000000004</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.2147187681230136</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3">
+        <v>0.81735579871946662</v>
+      </c>
+      <c r="D22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>1.351828</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>1.20424</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>1.1225569653889591</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.93379999999999996</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>1.034</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>1.149</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="16">
         <v>16.87</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>1.7953616370000001</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>187</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.79830000000000001</v>
       </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.43709399999999998</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>1.01</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.43276633663366332</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.82950000000000002</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.94059999999999999</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>0.05</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="16">
         <v>16.489999999999998</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>1.9275474890000002</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>412</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>0.79180000000000006</v>
       </c>
-      <c r="C24" s="4">
-        <v>0.22298990165038199</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="3">
+        <v>0.64492420796009409</v>
+      </c>
+      <c r="D24" s="2">
         <v>11</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>1.045704</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0.82574000000000003</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>1.2663840918448908</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.85400000000000009</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>1.2619</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>1.3979999999999999</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="16">
         <v>17.100000000000001</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>4.6643853890000004</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="2">
         <v>258</v>
       </c>
-      <c r="N24">
-        <v>5.2675886410959112E-2</v>
-      </c>
-      <c r="O24">
+      <c r="N24" s="15">
+        <v>0.29634102396691142</v>
+      </c>
+      <c r="O24" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>0.81420000000000003</v>
       </c>
-      <c r="C25" s="4">
-        <v>0.53355724334224319</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="3">
+        <v>0.29848167077467752</v>
+      </c>
+      <c r="D25" s="2">
         <v>11</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>1.639931</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>1.89395</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>0.86587871907917313</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>0.99219999999999997</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>1.1536999999999999</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>0.35499999999999998</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="16">
         <v>16.75</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>1.7519828260000001</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="2">
         <v>235</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>0.79290000000000005</v>
       </c>
-      <c r="C26" s="4">
-        <v>0.78984069678107238</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3">
+        <v>1.128775874783543</v>
+      </c>
+      <c r="D26" s="2">
         <v>9</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>2.85189</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>4.1456999999999997</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>0.68791518923221662</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>0.85719999999999996</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>0.94820000000000004</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>3.2549999999999999</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="16">
         <v>17.11</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <v>1.8702513570000001</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="2">
         <v>128</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>0.81400000000000006</v>
       </c>
-      <c r="C27" s="4">
-        <v>0.16135557995416111</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="3">
+        <v>0.60924689488587747</v>
+      </c>
+      <c r="D27" s="2">
         <v>3</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>1.174485</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>1.51833</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>0.77353737329829486</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>0.95420000000000005</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>1.1135999999999999</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>3.2789999999999999</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="16">
         <v>15.21</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>2.0499335300000001</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="2">
         <v>198</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>0.76849999999999996</v>
       </c>
-      <c r="C28" s="4">
-        <v>4.190231137285251E-2</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="3">
+        <v>0.31589348030941949</v>
+      </c>
+      <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>1.9286399999999999</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>2.5511900000000001</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>0.75597662267412469</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>0.89029999999999998</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>0.85619999999999996</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>0.48099999999999998</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="16">
         <v>17.22</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <v>1.38669613</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="2">
         <v>329</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD6CACD-765C-4910-B0CD-5FCBE192482A}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.83090000000000008</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.5766798544571381</v>
+      </c>
+      <c r="D2" s="4">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1233522563684237</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.76796</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2.1329617185909182</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.95730000000000004</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1.1017999999999999</v>
+      </c>
+      <c r="K2" s="6">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.81220000000000003</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.27324209096797419</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.3057699999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.4396409781201895</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="K3" s="6">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.85343076798153084</v>
+      </c>
+      <c r="D4" s="2">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.26158636335248919</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.2248800000000002</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.6711498269218206</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.2122999999999999</v>
+      </c>
+      <c r="K4" s="6">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.97773607117305961</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.52251861742009653</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.71062</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0821206956342095</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.1153</v>
+      </c>
+      <c r="K5" s="6">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1707776181692596</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.4147100000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.88893342098380579</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.94389999999999996</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.77819999999999989</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.45642742762924421</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.84016</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.67153191533686096</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="K7" s="6">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.49106971602312821</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.39692368220076368</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.98451999999999995</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.3763407548856295</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.1128</v>
+      </c>
+      <c r="K8" s="6">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.42346034645105768</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.0740700000000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.86178844333408156</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.81129999999999991</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="K9" s="6">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.68136488006542528</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.0401099999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.9274220507717722</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="K10" s="6">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.8095</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.71688880558098367</v>
+      </c>
+      <c r="D11" s="2">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.117472926099497E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.6522000000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.5384584190775934</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1.2392000000000001</v>
+      </c>
+      <c r="K11" s="6">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.30829458363328399</v>
+      </c>
+      <c r="D12" s="2">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.2084693267133545</v>
+      </c>
+      <c r="F12" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.16766999999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14.728866225323552</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.8236000000000001</v>
+      </c>
+      <c r="K12" s="6">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.3145890644770482E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.11348999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.8459159397303728</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.1355999999999999</v>
+      </c>
+      <c r="K13" s="6">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.85349999999999993</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.53662121420960673</v>
+      </c>
+      <c r="D14" s="2">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.16795339146624699</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.20661000000000002</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12.657577077585788</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.98769999999999991</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.6478999999999999</v>
+      </c>
+      <c r="K14" s="6">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.83279999999999998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.19201406720277939</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.6538109125967238E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9.0676962025316463</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.2656000000000001</v>
+      </c>
+      <c r="K15" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.83849999999999991</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.4616250853791107E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.415407630919001E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3.9270000000000006E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>14.736898395721925</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.2883</v>
+      </c>
+      <c r="K16" s="6">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.81140000000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8.5915185151298701E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7.6613538628818841E-3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.7359999999999997E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9.2499464668094227</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.99569999999999992</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.2505999999999999</v>
+      </c>
+      <c r="K17" s="6">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.35566281882322498</v>
+      </c>
+      <c r="D18" s="2">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.1405557510454413</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.20029</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10.78888112237256</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.6278999999999999</v>
+      </c>
+      <c r="K18" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.7228174611958227E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.8250000000000001E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7.5029637305699479</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.98739999999999994</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.1798999999999999</v>
+      </c>
+      <c r="K19" s="6">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.1072009828321798</v>
+      </c>
+      <c r="D20" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.17161000000000001</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.3293397820639816</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1.1063000000000001</v>
+      </c>
+      <c r="K20" s="6">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.26646075213771298</v>
+      </c>
+      <c r="D21" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.11056</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.0909388056476013</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.96569999999999989</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1.0011000000000001</v>
+      </c>
+      <c r="K21" s="6">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.2147187681230136</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.20424</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.1225569653889591</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.034</v>
+      </c>
+      <c r="K22" s="6">
+        <v>16.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.43276633663366332</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="K23" s="6">
+        <v>16.489999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.79180000000000006</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.22298990165038199</v>
+      </c>
+      <c r="D24" s="2">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.2675886410959112E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.82574000000000003</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1.2663840918448908</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.85400000000000009</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1.2619</v>
+      </c>
+      <c r="K24" s="6">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.81420000000000003</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.53355724334224319</v>
+      </c>
+      <c r="D25" s="2">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.89395</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.86587871907917313</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1.1536999999999999</v>
+      </c>
+      <c r="K25" s="6">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.78984069678107238</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.1456999999999997</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.68791518923221662</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.94820000000000004</v>
+      </c>
+      <c r="K26" s="6">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.16135557995416111</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.51833</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.77353737329829486</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="K27" s="6">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.190231137285251E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2.5511900000000001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.75597662267412469</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="K28" s="6">
+        <v>17.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE597AE3-54C3-447F-8DD9-A9A0BF1AE0ED}">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.5766798544571381</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.1233522563684237</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-3.744825243740642</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.8051938436047801E-4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-10.050623839134801</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.27324209096797419</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-11.95668148258329</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.85343076798153084</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.26158636335248919</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-2.0841099396865479</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.7150168135454457E-2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="3">
+        <v>-8.9238561459617767</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.97773607117305961</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.52251861742009653</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-0.2016076466410858</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.8402234668267512</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-3.6979360689516421</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2.1735961224611519E-4</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1707776181692596</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-12.640347081154241</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.45642742762924421</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-2.6530792294062331</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7.9761146382413273E-3</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.49106971602312821</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.39692368220076368</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-4.4606731060579801</v>
+      </c>
+      <c r="K9" s="3">
+        <v>8.1702633627500632E-6</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-3.7661918398950371</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.657564479597973E-4</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.42346034645105768</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-2.6478659446250048</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8.1001638573692247E-3</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.68136488006542528</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-2.1152421953995439</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3.4409310329700959E-2</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.71688880558098367</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.117472926099497E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-2.8830409421404011</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3.9385624618013537E-3</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-43.949887294230763</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.30829458363328399</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.2084693267133545</v>
+      </c>
+      <c r="H13" s="2">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-24.839540719049928</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-22.675876725529889</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9.3145890644770482E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-17.368505007147998</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.53662121420960673</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.16795339146624699</v>
+      </c>
+      <c r="H15" s="2">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-9.3611644886807532</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-12.547663500912421</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.19201406720277939</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.6538109125967238E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-30.92933689497589</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-43.570494196927108</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6.4616250853791107E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.415407630919001E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-63.27878866009209</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-98.501424270868569</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8.5915185151298701E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7.6613538628818841E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-62.160792549551232</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-183.17634153843599</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.35566281882322498</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.1405557510454413</v>
+      </c>
+      <c r="H19" s="2">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="3">
+        <v>-16.225560739574291</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="3">
+        <v>-19.07197009492803</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.7228174611958227E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-43.607669975330062</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.1072009828321798</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-39.535496497027687</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.26646075213771298</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="3">
+        <v>-13.20449413143335</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.2147187681230136</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-9.4572300332035724</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.22298990165038199</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5.2675886410959112E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>23</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-13.275995739552849</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="3">
+        <v>-33.094804594276113</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.53355724334224319</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-4.3996334537151363</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.084338770840354E-5</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.78984069678107238</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>25</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1.21953546874828</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.22264102223941401</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.16135557995416111</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>26</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-8.1461335512972379</v>
+      </c>
+      <c r="K28" s="3">
+        <v>4.4408920985006262E-16</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4.190231137285251E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>27</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-32.336038298180107</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="72" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>